--- a/Сайты+что добавил/Список сайтов часть вторая/Сайты компаний-2.xlsx
+++ b/Сайты+что добавил/Список сайтов часть вторая/Сайты компаний-2.xlsx
@@ -351,9 +351,6 @@
     <t>ООО Кирпичный дом</t>
   </si>
   <si>
-    <t>Крым Кровля ООО</t>
-  </si>
-  <si>
     <t>http://крым-кровля.рф/index.php/ru/2015-08-12-19-33-32/dileram</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>http://dorozhnik.ru.com/wp-content/uploads/2019/01/Прайс-на-технику.docx</t>
   </si>
   <si>
-    <t>ООО "Ясака"</t>
-  </si>
-  <si>
     <t>http://ясака.рф/beton/</t>
   </si>
   <si>
@@ -553,13 +547,58 @@
   </si>
   <si>
     <t>скачать эксель нельзя</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Крым Кровля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ООО</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ООО "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ясака</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +672,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -693,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -790,6 +835,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1687,7 @@
         <v>97</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,7 +1701,7 @@
         <v>100</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,7 +1715,7 @@
         <v>102</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1678,7 +1729,7 @@
         <v>104</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1692,21 +1743,21 @@
         <v>106</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>53</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="34" t="s">
         <v>107</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,24 +1768,24 @@
         <v>109</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>55</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="28" t="s">
-        <v>111</v>
-      </c>
       <c r="D56" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1742,13 +1793,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>113</v>
-      </c>
       <c r="D57" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1756,13 +1807,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="28" t="s">
-        <v>115</v>
-      </c>
       <c r="D58" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,13 +1821,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="28" t="s">
-        <v>117</v>
-      </c>
       <c r="D59" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,13 +1835,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="28" t="s">
-        <v>119</v>
-      </c>
       <c r="D60" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1798,13 +1849,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>121</v>
-      </c>
       <c r="D61" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1812,13 +1863,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="28" t="s">
-        <v>123</v>
-      </c>
       <c r="D62" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1826,13 +1877,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="28" t="s">
-        <v>125</v>
-      </c>
       <c r="D63" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,13 +1891,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>127</v>
-      </c>
       <c r="D64" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,13 +1905,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="28" t="s">
-        <v>129</v>
-      </c>
       <c r="D65" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1868,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="28" t="s">
-        <v>131</v>
-      </c>
       <c r="D66" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,13 +1933,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="28" t="s">
-        <v>133</v>
-      </c>
       <c r="D67" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1896,13 +1947,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="D68" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -1910,13 +1961,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>137</v>
-      </c>
       <c r="D69" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -1924,27 +1975,27 @@
         <v>69</v>
       </c>
       <c r="B70" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="28" t="s">
-        <v>139</v>
-      </c>
       <c r="D70" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>70</v>
       </c>
-      <c r="B71" s="35" t="s">
-        <v>140</v>
+      <c r="B71" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -1952,13 +2003,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -1966,97 +2017,97 @@
         <v>72</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>73</v>
       </c>
-      <c r="B74" s="35" t="s">
-        <v>146</v>
+      <c r="B74" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>74</v>
       </c>
-      <c r="B75" s="35" t="s">
-        <v>148</v>
+      <c r="B75" s="37" t="s">
+        <v>146</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>75</v>
       </c>
-      <c r="B76" s="35" t="s">
-        <v>150</v>
+      <c r="B76" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>76</v>
       </c>
-      <c r="B77" s="35" t="s">
-        <v>152</v>
+      <c r="B77" s="37" t="s">
+        <v>150</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>77</v>
       </c>
-      <c r="B78" s="35" t="s">
-        <v>155</v>
+      <c r="B78" s="37" t="s">
+        <v>153</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>78</v>
       </c>
-      <c r="B79" s="35" t="s">
-        <v>157</v>
+      <c r="B79" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
